--- a/OrangeHRM/src/main/java/ExcellFileTestData/TestData.xlsx
+++ b/OrangeHRM/src/main/java/ExcellFileTestData/TestData.xlsx
@@ -9,16 +9,16 @@
   <sheets>
     <sheet name="PositiveLogin" sheetId="1" r:id="rId1"/>
     <sheet name="NegativeLogin" sheetId="2" r:id="rId2"/>
-    <sheet name="SaveSystemUser2" sheetId="3" r:id="rId3"/>
+    <sheet name="SaveSystemUser" sheetId="5" r:id="rId3"/>
     <sheet name="EditSaveSystemUserPWChange" sheetId="4" r:id="rId4"/>
-    <sheet name="SaveSystemUser" sheetId="5" r:id="rId5"/>
+    <sheet name="DeleteUser" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="27">
   <si>
     <t>UserName</t>
   </si>
@@ -80,28 +80,25 @@
     <t>Enabled</t>
   </si>
   <si>
-    <t>Saroj10</t>
-  </si>
-  <si>
-    <t>Saroj11</t>
-  </si>
-  <si>
     <t>Clicking User</t>
   </si>
   <si>
-    <t>Saroj15</t>
-  </si>
-  <si>
-    <t>Surjit15</t>
-  </si>
-  <si>
-    <t>Surjit16</t>
-  </si>
-  <si>
-    <t>Saroj18</t>
-  </si>
-  <si>
-    <t>Saroj20</t>
+    <t>Saroj110</t>
+  </si>
+  <si>
+    <t>Surjit110</t>
+  </si>
+  <si>
+    <t>Saroj111</t>
+  </si>
+  <si>
+    <t>Saroj53</t>
+  </si>
+  <si>
+    <t>DeleteUserName</t>
+  </si>
+  <si>
+    <t>Surjit60</t>
   </si>
 </sst>
 </file>
@@ -177,7 +174,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -597,7 +594,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:I3"/>
@@ -606,11 +603,12 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -658,7 +656,7 @@
         <v>18</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>19</v>
@@ -670,7 +668,7 @@
         <v>14</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -687,7 +685,7 @@
         <v>18</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>19</v>
@@ -699,11 +697,8 @@
         <v>14</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="D4" s="11"/>
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -715,7 +710,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -740,7 +735,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>15</v>
@@ -772,7 +767,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>2</v>
@@ -781,7 +776,7 @@
         <v>18</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>19</v>
@@ -793,7 +788,7 @@
         <v>14</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -804,99 +799,67 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="C1" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="6" t="s">
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
